--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/cb6g19_soton_ac_uk/Documents/Year 4/COMP6216 - Simulation Modelling/COMP6216-Group-Coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{D60BFA58-60F0-4C03-892D-67D28A1EF8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86583802-2518-419E-A7DE-082BBBD2CEB6}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{D60BFA58-60F0-4C03-892D-67D28A1EF8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358E99F5-FFDB-4E1D-A098-AD3E3519CB94}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B51E8975-7361-468A-ABB9-4C3054644EAE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Seed = 2</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Station Power</t>
+  </si>
+  <si>
+    <t>Station Radius</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Affect of Station Power on Tree and</a:t>
+              <a:t>Effect of Number of Trees Watered per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Iteration </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>on Tree and</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -379,7 +390,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Station Power</a:t>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Trees Burnt per Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -500,7 +515,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Percentage Burnt</a:t>
+                  <a:t>Percentage Burnt (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -652,7 +667,1133 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>t of Station Radius on Trees and Settlements Burnt</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Percentage of Trees Burnt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Watering Results'!$E$12:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3651-47C8-97E3-FF6013CAF0CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Percentage of Settlements Burnt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Watering Results'!$I$12:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3651-47C8-97E3-FF6013CAF0CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1047216879"/>
+        <c:axId val="1047216047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1047216879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Station</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Radius</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047216047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1047216047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage Burnt (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047216879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Effec</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>t of Station Radius on Trees and Settlements Burnt</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Percentage of Trees Burnt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Watering Results'!$E$12:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E07-4D41-B352-A69BE2F525ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Percentage of Settlements Burnt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Watering Results'!$I$12:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E07-4D41-B352-A69BE2F525ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1047216879"/>
+        <c:axId val="1047216047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1047216879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Station</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Radius</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047216047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1047216047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage Burnt (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047216879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1195,20 +2336,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1001154</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5608</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320798</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>487382</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52779</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>42883</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61851</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1228,6 +3375,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>611908</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAD59EA-D170-F3CF-FFBD-C0AF267A95E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100611</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537C9304-8B04-4021-AB72-EAD601A6C151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1533,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C21A089-B7DC-45C6-80B0-9D39411A96AA}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1710,6 +3931,325 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4463</v>
+      </c>
+      <c r="C12">
+        <v>1100</v>
+      </c>
+      <c r="D12">
+        <v>366</v>
+      </c>
+      <c r="E12">
+        <v>75.27</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>314</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>4791</v>
+      </c>
+      <c r="C13">
+        <v>826</v>
+      </c>
+      <c r="D13">
+        <v>312</v>
+      </c>
+      <c r="E13">
+        <v>80.81</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>285</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>5030</v>
+      </c>
+      <c r="C14">
+        <v>585</v>
+      </c>
+      <c r="D14">
+        <v>314</v>
+      </c>
+      <c r="E14">
+        <v>84.84</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>282</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>5241</v>
+      </c>
+      <c r="C15">
+        <v>393</v>
+      </c>
+      <c r="D15">
+        <v>295</v>
+      </c>
+      <c r="E15">
+        <v>88.4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>301</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>5413</v>
+      </c>
+      <c r="C16">
+        <v>258</v>
+      </c>
+      <c r="D16">
+        <v>258</v>
+      </c>
+      <c r="E16">
+        <v>91.3</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>280</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>5622</v>
+      </c>
+      <c r="C17">
+        <v>104</v>
+      </c>
+      <c r="D17">
+        <v>203</v>
+      </c>
+      <c r="E17">
+        <v>94.82</v>
+      </c>
+      <c r="F17">
+        <v>68</v>
+      </c>
+      <c r="G17">
+        <v>162</v>
+      </c>
+      <c r="H17">
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>5760</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>97.15</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>123</v>
+      </c>
+      <c r="H18">
+        <v>136</v>
+      </c>
+      <c r="I18">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5860</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>98.84</v>
+      </c>
+      <c r="F19">
+        <v>128</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>146</v>
+      </c>
+      <c r="I19">
+        <v>40.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>5882</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>99.21</v>
+      </c>
+      <c r="F20">
+        <v>205</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>98</v>
+      </c>
+      <c r="I20">
+        <v>65.290000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5928</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>99.98</v>
+      </c>
+      <c r="F21">
+        <v>314</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I7">
     <sortCondition ref="A4:A7"/>
